--- a/Qwiic_Iridium_9603N_SparkFun_BOM.xlsx
+++ b/Qwiic_Iridium_9603N_SparkFun_BOM.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Qwiic_Iridium_9603N" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Qwiic_Iridium_9603N!$A$1:$O$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Qwiic_Iridium_9603N!$A$1:$P$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="246">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Sparkle SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">New Sparkle SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKU good?</t>
   </si>
   <si>
@@ -286,6 +289,9 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
+    <t xml:space="preserve">CONN-14689</t>
+  </si>
+  <si>
     <t xml:space="preserve">Samtec SS4-10-3.50-L-D-K-TR</t>
   </si>
   <si>
@@ -445,6 +451,9 @@
     <t xml:space="preserve">311-30.1KHRCT-ND </t>
   </si>
   <si>
+    <t xml:space="preserve">RES-14690</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chip Resistor; Thick Film; 30.1k; 50V; 0603; 100mW</t>
   </si>
   <si>
@@ -478,6 +487,9 @@
     <t xml:space="preserve">603-RL0603FR070R012L</t>
   </si>
   <si>
+    <t xml:space="preserve">RES-14691</t>
+  </si>
+  <si>
     <t xml:space="preserve">Current Sense Resistor; 12 mOhms; 0603; 100mW</t>
   </si>
   <si>
@@ -526,6 +538,9 @@
     <t xml:space="preserve">556-ATTINY841-SSU</t>
   </si>
   <si>
+    <t xml:space="preserve">IC-14692</t>
+  </si>
+  <si>
     <t xml:space="preserve">Microchip AVR ATtiny841 16MHz SOIC</t>
   </si>
   <si>
@@ -550,6 +565,9 @@
     <t xml:space="preserve">584-C3225EDDBTRMPBF</t>
   </si>
   <si>
+    <t xml:space="preserve">IC-14693</t>
+  </si>
+  <si>
     <t xml:space="preserve">Supercapacitor Charger</t>
   </si>
   <si>
@@ -568,6 +586,9 @@
     <t xml:space="preserve">584-ADM4210-1AUJZ-R7</t>
   </si>
   <si>
+    <t xml:space="preserve">IC-14694</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Swap Controller</t>
   </si>
   <si>
@@ -586,6 +607,9 @@
     <t xml:space="preserve">95117A411</t>
   </si>
   <si>
+    <t xml:space="preserve">HW-14695</t>
+  </si>
+  <si>
     <t xml:space="preserve">Press-In Nut; 2-56</t>
   </si>
   <si>
@@ -613,6 +637,9 @@
     <t xml:space="preserve">283-4198-ND </t>
   </si>
   <si>
+    <t xml:space="preserve">CAP-14696</t>
+  </si>
+  <si>
     <t xml:space="preserve">Supercapacitor; 1F; 2.7V; +30%, -10%; 3.5mm Pitch</t>
   </si>
   <si>
@@ -673,6 +700,9 @@
     <t xml:space="preserve">94669A100</t>
   </si>
   <si>
+    <t xml:space="preserve">HW-14697</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.5mm OD x 6mm Spacers for Iridium Module</t>
   </si>
   <si>
@@ -682,6 +712,9 @@
     <t xml:space="preserve">92185A081</t>
   </si>
   <si>
+    <t xml:space="preserve">HW-14698</t>
+  </si>
+  <si>
     <t xml:space="preserve">2-56 x 7/16 Screws for Iridium Module</t>
   </si>
   <si>
@@ -700,6 +733,9 @@
     <t xml:space="preserve">ARF2200-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">CBL-14699</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amphenol AMC cable (u.FL compatible) 50ohm 25mm</t>
   </si>
   <si>
@@ -713,6 +749,9 @@
   </si>
   <si>
     <t xml:space="preserve">2281619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMP-14676</t>
   </si>
   <si>
     <t xml:space="preserve">Iridium Passive Antenna with SMA connector</t>
@@ -1041,10 +1080,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N82" activeCellId="0" sqref="N82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N44" activeCellId="0" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1061,9 +1100,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="54.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="54.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1109,8 +1149,11 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1128,17 +1171,18 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1151,7 +1195,8 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -1168,11 +1213,12 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1187,7 +1233,8 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1204,11 +1251,12 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.76</v>
@@ -1229,13 +1277,14 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6" t="s">
-        <v>19</v>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>49.91</v>
@@ -1256,8 +1305,9 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
-        <v>19</v>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,10 +1326,11 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1295,6 +1346,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -1312,10 +1364,11 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>18.54</v>
@@ -1327,16 +1380,16 @@
         <v>270</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9" t="n">
         <v>2688523</v>
@@ -1345,19 +1398,20 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="N12" s="6"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>34.67</v>
@@ -1369,37 +1423,38 @@
         <v>270</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="N13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>27.43</v>
@@ -1411,16 +1466,16 @@
         <v>270</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9" t="n">
         <v>2496916</v>
@@ -1429,19 +1484,20 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="N14" s="6"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="6" t="s">
         <v>42</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>36.32</v>
@@ -1453,37 +1509,38 @@
         <v>270</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="N15" s="6"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="0" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>11.43</v>
@@ -1495,37 +1552,38 @@
         <v>270</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="N16" s="6"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>38.48</v>
@@ -1537,16 +1595,16 @@
         <v>180</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9" t="n">
         <v>2496916</v>
@@ -1555,19 +1613,20 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="N17" s="6"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>40.51</v>
@@ -1579,37 +1638,38 @@
         <v>270</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="N18" s="6"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>33.15</v>
@@ -1621,16 +1681,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9" t="n">
         <v>2496916</v>
@@ -1639,19 +1699,20 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="N19" s="6"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="6" t="s">
         <v>42</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>48.26</v>
@@ -1663,32 +1724,33 @@
         <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="6" t="s">
         <v>69</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>48.26</v>
@@ -1700,32 +1762,33 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="6" t="s">
         <v>74</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>48.26</v>
@@ -1737,32 +1800,33 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="6" t="s">
         <v>79</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>22.7</v>
@@ -1775,33 +1839,36 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6" t="s">
         <v>87</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>3.24</v>
@@ -1814,31 +1881,32 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>47.56</v>
@@ -1851,31 +1919,32 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>38.73</v>
@@ -1887,34 +1956,35 @@
         <v>90</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" s="13" t="n">
         <v>29.08</v>
@@ -1926,31 +1996,31 @@
         <v>0</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>2061404</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B28" s="13" t="n">
         <v>43.18</v>
@@ -1962,31 +2032,31 @@
         <v>180</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B29" s="13" t="n">
         <v>6.35</v>
@@ -1998,31 +2068,31 @@
         <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>2447320</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="O29" s="14"/>
+      <c r="P29" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B30" s="13" t="n">
         <v>3.81</v>
@@ -2034,31 +2104,31 @@
         <v>90</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>2447320</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B31" s="13" t="n">
         <v>17.65</v>
@@ -2070,31 +2140,31 @@
         <v>0</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I31" s="13" t="n">
         <v>2447385</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" s="13" t="n">
         <v>22.23</v>
@@ -2106,31 +2176,31 @@
         <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="O32" s="14"/>
+      <c r="P32" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B33" s="13" t="n">
         <v>47.24</v>
@@ -2142,31 +2212,31 @@
         <v>90</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I33" s="13" t="n">
         <v>2447243</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="O33" s="14"/>
+      <c r="P33" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B34" s="13" t="n">
         <v>44.2</v>
@@ -2178,33 +2248,36 @@
         <v>270</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I34" s="13" t="n">
         <v>2447334</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>140</v>
+        <v>87</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B35" s="13" t="n">
         <v>39.12</v>
@@ -2216,31 +2289,31 @@
         <v>270</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I35" s="13" t="n">
         <v>2447226</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B36" s="13" t="n">
         <v>30.48</v>
@@ -2252,31 +2325,34 @@
         <v>90</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I36" s="13"/>
       <c r="K36" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="O36" s="0" t="s">
-        <v>151</v>
+        <v>87</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B37" s="13" t="n">
         <v>37.85</v>
@@ -2288,31 +2364,31 @@
         <v>180</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>2447227</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="O37" s="14"/>
+      <c r="P37" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B38" s="13" t="n">
         <v>37.85</v>
@@ -2324,31 +2400,31 @@
         <v>0</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>2447227</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B39" s="13" t="n">
         <v>43.18</v>
@@ -2360,31 +2436,31 @@
         <v>180</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="O39" s="14"/>
+      <c r="P39" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B40" s="13" t="n">
         <v>43.05</v>
@@ -2396,31 +2472,31 @@
         <v>180</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>2447320</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="O40" s="14"/>
+      <c r="P40" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B41" s="13" t="n">
         <v>39.62</v>
@@ -2432,31 +2508,31 @@
         <v>0</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="O41" s="14"/>
+      <c r="P41" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>24.77</v>
@@ -2468,34 +2544,37 @@
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6" t="s">
-        <v>167</v>
+        <v>87</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>30.61</v>
@@ -2507,36 +2586,39 @@
         <v>0</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6" t="s">
-        <v>175</v>
+        <v>87</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>34.04</v>
@@ -2548,29 +2630,32 @@
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6" t="s">
-        <v>181</v>
+        <v>87</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,10 +2674,11 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2608,6 +2694,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
     </row>
     <row r="47" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
@@ -2625,10 +2712,11 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
     </row>
     <row r="48" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B48" s="20" t="n">
         <v>3.81</v>
@@ -2639,31 +2727,34 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="21" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6" t="s">
-        <v>187</v>
+        <v>87</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B49" s="20" t="n">
         <v>28.81</v>
@@ -2674,26 +2765,29 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="21" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6" t="s">
-        <v>187</v>
+        <v>87</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="50" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,10 +2806,11 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="6"/>
@@ -2737,92 +2832,95 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="6"/>
       <c r="D53" s="19"/>
       <c r="E53" s="9"/>
       <c r="F53" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>196</v>
+        <v>87</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="9"/>
       <c r="F54" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>203</v>
+        <v>87</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="9"/>
       <c r="F55" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I55" s="13" t="n">
         <v>2856818</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="O55" s="14"/>
+      <c r="P55" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,10 +2939,11 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2860,6 +2959,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
@@ -2877,10 +2977,11 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2888,21 +2989,22 @@
       <c r="E59" s="6"/>
       <c r="F59" s="9"/>
       <c r="G59" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N59" s="6"/>
-      <c r="O59" s="26" t="s">
-        <v>212</v>
+      <c r="O59" s="6"/>
+      <c r="P59" s="26" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,10 +3023,11 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="6"/>
@@ -2946,7 +3049,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="6"/>
@@ -2956,18 +3059,21 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="J63" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>216</v>
+        <v>87</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="6"/>
@@ -2977,13 +3083,16 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="J64" s="0" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +3107,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="6"/>
@@ -3020,7 +3129,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="6"/>
@@ -3028,23 +3137,26 @@
       <c r="E68" s="9"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="I68" s="13" t="n">
         <v>2664624</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N68" s="23"/>
-      <c r="O68" s="0" t="s">
-        <v>225</v>
+        <v>87</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O68" s="23"/>
+      <c r="P68" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,7 +3171,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="6"/>
@@ -3081,7 +3193,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="6"/>
@@ -3089,19 +3201,22 @@
       <c r="E72" s="9"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>230</v>
+        <v>87</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,7 +3231,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="6"/>
@@ -3138,7 +3253,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="6"/>
@@ -3156,7 +3271,7 @@
     <mergeCell ref="B54:D54"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O59" r:id="rId1" display="https://www.rock7.com/shop-product-detail?productId=50"/>
+    <hyperlink ref="P59" r:id="rId1" display="https://www.rock7.com/shop-product-detail?productId=50"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
